--- a/rawdata/12_mergers_organizations.xlsx
+++ b/rawdata/12_mergers_organizations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uzh-my.sharepoint.com/personal/elenamaria_goedde_uzh_ch/Documents/Desktop/Files for Coding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chrstein\Documents\pwicloud_MyDrive\ECOSOC\ECOSOC_Status\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{E3AF25D0-80B8-4E51-8B30-761D290BC2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A790DFD7-DFD7-4882-98D3-1F8B6FA417E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2609362D-7526-4B74-B03C-13A0A5DE7260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1620" windowWidth="17210" windowHeight="8170" xr2:uid="{CD753E02-11A8-4D7A-913C-EA6F5CB20089}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CD753E02-11A8-4D7A-913C-EA6F5CB20089}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Session_number</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Center for Health and Population and Social Welfare and the Future Institute for Sustainable Development,</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
     <t>International Stoke Mandeville Wheelchair Sports FederationInternational Sports Organization for the Disabled</t>
   </si>
   <si>
@@ -123,6 +120,12 @@
   </si>
   <si>
     <t>Center for Health and Population and Social Welfare and the Future Institute for Sustainable Development</t>
+  </si>
+  <si>
+    <t>additional_mention1</t>
+  </si>
+  <si>
+    <t>additional_mention_2</t>
   </si>
 </sst>
 </file>
@@ -187,14 +190,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +231,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -338,7 +337,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,7 +479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBF4DE2-1440-4C8B-8313-26B14B400BC9}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,7 +500,7 @@
     <col min="3" max="3" width="53.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,8 +513,14 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -529,7 +534,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -543,7 +548,7 @@
         <v>45331</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -557,7 +562,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -571,7 +576,7 @@
         <v>42909</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -585,7 +590,7 @@
         <v>39491</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -598,11 +603,8 @@
       <c r="D7" s="2">
         <v>39234</v>
       </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -615,11 +617,8 @@
       <c r="D8" s="2">
         <v>39234</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -632,36 +631,30 @@
       <c r="D9" s="2">
         <v>39234</v>
       </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>39133</v>
       </c>
-      <c r="E10" t="s">
-        <v>23</v>
+      <c r="E10" s="2">
+        <v>38887</v>
       </c>
       <c r="F10" s="2">
-        <v>38887</v>
-      </c>
-      <c r="G10" s="2">
         <v>38772</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -672,22 +665,19 @@
       <c r="D11" s="2">
         <v>39133</v>
       </c>
-      <c r="E11" t="s">
-        <v>23</v>
+      <c r="E11" s="2">
+        <v>38887</v>
       </c>
       <c r="F11" s="2">
-        <v>38887</v>
-      </c>
-      <c r="G11" s="2">
         <v>38772</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -695,13 +685,10 @@
       <c r="D12" s="2">
         <v>39133</v>
       </c>
-      <c r="E12" t="s">
-        <v>23</v>
+      <c r="E12" s="2">
+        <v>38887</v>
       </c>
       <c r="F12" s="2">
-        <v>38887</v>
-      </c>
-      <c r="G12" s="2">
         <v>38772</v>
       </c>
     </row>
